--- a/WebApp/obj/Release/Package/PackageTmp/Reports/Ficha_Cadastramento_Anomalias.xlsx
+++ b/WebApp/obj/Release/Package/PackageTmp/Reports/Ficha_Cadastramento_Anomalias.xlsx
@@ -321,7 +321,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -333,7 +387,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -345,66 +401,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -414,16 +414,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -432,16 +432,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,16 +453,16 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -478,77 +478,77 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -571,13 +571,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,7 +890,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="21"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="O2" s="21"/>
       <c r="P2" s="18" t="s">
         <v>27</v>
@@ -959,17 +962,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19" t="s">
         <v>28</v>
@@ -979,41 +982,41 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -1022,50 +1025,50 @@
       <c r="J5" s="10"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1075,9 +1078,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="13" t="s">
         <v>21</v>
       </c>
@@ -1090,11 +1093,11 @@
       <c r="L7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
@@ -1117,6 +1120,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="C2:M4"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:O7"/>
@@ -1124,12 +1133,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="P5:P7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1141,7 +1144,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,18 +1178,18 @@
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
@@ -1196,18 +1199,18 @@
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="56"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="25">

--- a/WebApp/obj/Release/Package/PackageTmp/Reports/Ficha_Cadastramento_Anomalias.xlsx
+++ b/WebApp/obj/Release/Package/PackageTmp/Reports/Ficha_Cadastramento_Anomalias.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="21075" windowHeight="9795"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">OAE: SP
 </t>
@@ -42,9 +42,6 @@
     <t>ITEM</t>
   </si>
   <si>
-    <t>LOCALIZAÇÃO (SUB-TRECHO)  ELEMENTO ESTRUTURAL</t>
-  </si>
-  <si>
     <t>TIPO DE ANOMALIA</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>CROQUI Nº</t>
   </si>
   <si>
-    <t>DESENHO</t>
-  </si>
-  <si>
     <t>OBSERVAÇÕES</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
     <t>Houve dúvidas para identificar alguma anomalia?</t>
   </si>
   <si>
-    <t>DATA:</t>
-  </si>
-  <si>
-    <t>Fl:</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -124,6 +112,49 @@
   </si>
   <si>
     <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>LOCALIZAÇÃO ELEMENTO ESTRUTURAL</t>
+  </si>
+  <si>
+    <t>LOCALIZAÇÃO ESPECÍFICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSERVAÇÕES:
+O engenheiro responsável  deverá:
+1. Checar e/ou alterar os dados de cadastro da OAE no sistema caso seja verificado diferenças em campo;
+2. Inserir no sistema as NOTAS da OAE após a análise das patologias cadastradas;
+3. Inserir Tabela com as notas da OAE exportada diretamente do Sistema no Relatório Técnico de Inspeção Especial da OAE;
+4. Cadastrar e associar o Relatório Técnico da Inspeção Especial à Obra de Arte e à Ordem de Serviço da Inspeção Especial;
+5. Encerrar a Ordem de Serviço após a associação do Relatório para que a seção de OAE seja notificada.
+</t>
+  </si>
+  <si>
+    <t>CÓDIGO DO OBJETO</t>
+  </si>
+  <si>
+    <t>REPARO INDICADO</t>
+  </si>
+  <si>
+    <t>QUANTIDADE INDICADA</t>
+  </si>
+  <si>
+    <t>REPARO ADOTADO</t>
+  </si>
+  <si>
+    <t>QUANTIDADE ADOTADA</t>
+  </si>
+  <si>
+    <t>PROVI DÊNCIA</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
   </si>
 </sst>
 </file>
@@ -133,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +251,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,14 +273,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -405,6 +438,17 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -441,36 +485,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -484,30 +498,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,23 +577,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -571,17 +607,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -887,38 +929,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <sheetPr codeName="Plan1"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -931,208 +972,246 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="J5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="K5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="R5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="S5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="L6" s="27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="11" t="s">
+      <c r="M6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="N6" s="35"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+    </row>
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="L7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="13" t="s">
+      <c r="N7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="16"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="E2:O4"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="W5:W7"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C2:M4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1141,64 +1220,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan2"/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -1212,28 +1292,62 @@
       <c r="P3" s="54"/>
       <c r="Q3" s="55"/>
     </row>
+    <row r="4" spans="1:17" s="24" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+    </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
+      <c r="B5" s="56">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>29</v>
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>31</v>
+      <c r="A8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
